--- a/理财啦.xlsx
+++ b/理财啦.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
-    <sheet name="P2P" sheetId="2" r:id="rId2"/>
-    <sheet name="余额宝" sheetId="4" r:id="rId3"/>
-    <sheet name="朝朝盈" sheetId="5" r:id="rId4"/>
-    <sheet name="铜板街（铜宝）" sheetId="6" r:id="rId5"/>
+    <sheet name="余额宝" sheetId="4" r:id="rId2"/>
+    <sheet name="朝朝盈" sheetId="5" r:id="rId3"/>
+    <sheet name="铜板街（铜宝）" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">P2P!$A$1:$N$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">余额宝!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">朝朝盈!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">铜板街（铜宝）!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">余额宝!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">朝朝盈!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">铜板街（铜宝）!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>基金名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预计利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,46 +89,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成度%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计收入（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际收入（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持有时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否提取成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起息时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,14 +110,6 @@
   </si>
   <si>
     <t>账户余额（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄河金融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜板街</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,12 +188,6 @@
   <si>
     <t>天天基金</t>
   </si>
-  <si>
-    <t>一铜金A809期</t>
-  </si>
-  <si>
-    <t>零钱宝-36号</t>
-  </si>
 </sst>
 </file>
 
@@ -254,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0.00000%"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,14 +224,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -336,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,12 +288,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,98 +318,98 @@
   </borders>
   <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -525,9 +455,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -552,37 +479,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -621,19 +520,19 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -730,7 +629,7 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="106">
     <dxf>
       <fill>
         <patternFill>
@@ -1365,404 +1264,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2213,16 +1714,16 @@
     <col min="4" max="4" width="11.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="20" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
@@ -2236,68 +1737,68 @@
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>11</v>
+      <c r="I1" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>42009</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="53" t="s">
-        <v>43</v>
+      <c r="D2" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="19">
+        <v>32</v>
+      </c>
+      <c r="G2" s="18">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18">
         <v>1127.03</v>
       </c>
       <c r="J2" s="2">
@@ -2308,11 +1809,11 @@
         <f>IF(K2&lt;&gt;"",K2-J2,"")</f>
         <v/>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="M2" s="18" t="str">
         <f>IF(H2&lt;&gt;"",H2-G2,"")</f>
         <v/>
       </c>
-      <c r="N2" s="19" t="str">
+      <c r="N2" s="18" t="str">
         <f>IF(C2&lt;&gt;"",C2-B2,"")</f>
         <v/>
       </c>
@@ -2320,33 +1821,33 @@
         <f>L2/J2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P2" s="23" t="e">
+      <c r="P2" s="22" t="e">
         <f>O2/(C2-B2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>42009</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="53" t="s">
-        <v>46</v>
+      <c r="D3" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="19">
+        <v>32</v>
+      </c>
+      <c r="G3" s="18">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
         <v>0.88200000000000001</v>
       </c>
       <c r="J3" s="2">
@@ -2357,11 +1858,11 @@
         <f>IF(K3&lt;&gt;"",K3-J3,"")</f>
         <v/>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="18" t="str">
         <f>IF(H3&lt;&gt;"",H3-G3,"")</f>
         <v/>
       </c>
-      <c r="N3" s="19" t="str">
+      <c r="N3" s="18" t="str">
         <f>IF(C3&lt;&gt;"",C3-B3,"")</f>
         <v/>
       </c>
@@ -2369,31 +1870,31 @@
         <f>L3/J3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="23" t="e">
+      <c r="P3" s="22" t="e">
         <f>O3/(C3-B3)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="51" t="s">
-        <v>45</v>
+      <c r="A4" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>42356</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="53" t="s">
-        <v>46</v>
+      <c r="D4" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <v>2389.5100000000002</v>
       </c>
       <c r="J4" s="2">
@@ -2404,11 +1905,11 @@
         <f t="shared" ref="L4" si="0">IF(K4&lt;&gt;"",K4-J4,"")</f>
         <v/>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="18" t="str">
         <f t="shared" ref="M4" si="1">IF(H4&lt;&gt;"",H4-G4,"")</f>
         <v/>
       </c>
-      <c r="N4" s="19" t="str">
+      <c r="N4" s="18" t="str">
         <f>IF(C4&lt;&gt;"",C4-B4,"")</f>
         <v/>
       </c>
@@ -2416,7 +1917,7 @@
         <f>L4/J4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="23" t="e">
+      <c r="P4" s="22" t="e">
         <f>O4/(C4-B4)</f>
         <v>#VALUE!</v>
       </c>
@@ -2430,9 +1931,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2">
         <f>SUM(J2:J4)</f>
         <v>6000</v>
@@ -2445,13 +1946,13 @@
         <f>IF(L2&lt;&gt;"",SUM(L2:L4),"")</f>
         <v/>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="4" t="e">
         <f ca="1">AVERAGE(O2:INDIRECT(ADDRESS(ROW(O5)-1,COLUMN(O5))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="23" t="e">
+      <c r="P5" s="22" t="e">
         <f ca="1">AVERAGE(P2:INDIRECT(ADDRESS(ROW(P5)-1,COLUMN(P5))))</f>
         <v>#VALUE!</v>
       </c>
@@ -2463,16 +1964,16 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="14"/>
@@ -2481,66 +1982,66 @@
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="24"/>
+      <c r="P7" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="150" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" dxfId="149" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="147" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P2 O4:P1048576">
-    <cfRule type="cellIs" dxfId="146" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P2 O4:P1048576">
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="143" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="cellIs" dxfId="141" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2556,458 +2057,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42481</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42482</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2">
-        <v>800</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2" si="0">IF(E2&lt;&gt;"",E2-D2,"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="12" t="str">
-        <f t="shared" ref="J2" si="1">IF(E2&lt;&gt;"",H2*(F2+G2)/365*I2+(F2+G2),"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="str">
-        <f t="shared" ref="L2" si="2">IF(K2&lt;&gt;"",K2-F2,"")</f>
-        <v/>
-      </c>
-      <c r="M2" s="27">
-        <f ca="1">IF((TODAY()-C2)/(E2-C2)&gt;=1,100%,(TODAY()-C2)/(E2-C2))</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42404</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42404</v>
-      </c>
-      <c r="E3" s="3">
-        <v>42438</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3" si="3">IF(E3&lt;&gt;"",E3-D3,"")</f>
-        <v>34</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3" si="4">IF(E3&lt;&gt;"",H3*(F3+G3)/365*I3+(F3+G3),"")</f>
-        <v>1005.5890410958904</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3" si="5">IF(K3&lt;&gt;"",K3-F3,"")</f>
-        <v/>
-      </c>
-      <c r="M3" s="27">
-        <f ca="1">IF((TODAY()-C3)/(E3-C3)&gt;=1,100%,(TODAY()-C3)/(E3-C3))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" s="36" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32">
-        <f>SUMIF(A1:A2,"黄河金融",F1:F2)</f>
-        <v>800</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="34">
-        <f ca="1">SUMIF(A1:A2,"黄河金融",J1:J1)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="34">
-        <f>SUMIF(A1:A1,"黄河金融",K1:K1)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="32">
-        <f>SUMIF(A1:A1,"黄河金融",L1:L1)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="35" t="e">
-        <f>AVERAGEIF(A1:A1,"黄河金融",M1:M1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" s="36" customFormat="1">
-      <c r="A5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32">
-        <f>SUMIF(A2:A4,"铜板街",F2:F4)</f>
-        <v>1000</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34">
-        <f>SUMIF(A1:A1,"铜板街",J1:J2)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="34">
-        <f>SUMIF(A1:A1,"铜板街",K1:K1)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
-        <f>SUMIF(A1:A1,"铜板街",L1:L1)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="35" t="e">
-        <f>AVERAGEIF(A1:A1,"铜板街",M1:M1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" s="36" customFormat="1">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32">
-        <f>SUMIF(B2:B5,"",F2:F5)</f>
-        <v>1800</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34">
-        <f ca="1">SUMIF(B1:B5,"",J1:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="34">
-        <f>SUMIF(B1:B5,"",K1:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
-        <f>SUMIF(B1:B5,"",L1:L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="35" t="e">
-        <f>AVERAGEIF(B1:B5,"",M1:M5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="33"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N7"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A6:A1048576 A1:A2">
-    <cfRule type="cellIs" dxfId="140" priority="551" operator="equal">
-      <formula>"招商银行"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="680" operator="equal">
-      <formula>"有利网"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="681" operator="equal">
-      <formula>"陆金所"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="682" operator="equal">
-      <formula>"黄河金融"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="683" operator="equal">
-      <formula>"铜板街"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M1048576 M2">
-    <cfRule type="cellIs" dxfId="135" priority="672" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="673" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="674" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="132" priority="671" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M1048576 M1:M2">
-    <cfRule type="cellIs" dxfId="131" priority="669" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N1048576 N1:N2">
-    <cfRule type="cellIs" dxfId="130" priority="594" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1:A2">
-    <cfRule type="cellIs" dxfId="129" priority="505" operator="equal">
-      <formula>"支付宝"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="128" priority="280" operator="equal">
-      <formula>"招商银行"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="287" operator="equal">
-      <formula>"有利网"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="288" operator="equal">
-      <formula>"陆金所"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="289" operator="equal">
-      <formula>"黄河金融"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="290" operator="equal">
-      <formula>"铜板街"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="123" priority="281" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="122" priority="279" operator="equal">
-      <formula>"支付宝"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="121" priority="266" operator="equal">
-      <formula>"招商银行"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="273" operator="equal">
-      <formula>"有利网"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="274" operator="equal">
-      <formula>"陆金所"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="275" operator="equal">
-      <formula>"黄河金融"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="276" operator="equal">
-      <formula>"铜板街"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="116" priority="269" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="270" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="271" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="113" priority="268" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="112" priority="267" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="111" priority="265" operator="equal">
-      <formula>"支付宝"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="110" priority="262" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="263" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="264" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="107" priority="261" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
-      <formula>"招商银行"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
-      <formula>"有利网"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
-      <formula>"陆金所"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
-      <formula>"黄河金融"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
-      <formula>"铜板街"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
-      <formula>"支付宝"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3024,32 +2078,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>42370</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="25">
         <v>800</v>
       </c>
       <c r="E2" s="12">
@@ -3057,32 +2111,32 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="40" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:6" s="29" customFormat="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>42205</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <v>1000</v>
       </c>
       <c r="E3" s="12">
         <v>6500</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="28">
         <f>ABS(E3-D3-E2)</f>
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="46" customFormat="1">
-      <c r="A4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45">
+    <row r="4" spans="1:6" s="35" customFormat="1">
+      <c r="A4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34">
         <f>SUM(F2:F3)</f>
         <v>4700</v>
       </c>
@@ -3188,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3211,32 +2265,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="55">
+        <v>23</v>
+      </c>
+      <c r="C2" s="44">
         <v>42376</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="25">
         <v>1000</v>
       </c>
       <c r="E2" s="12">
@@ -3244,75 +2298,75 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="40" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:6" s="29" customFormat="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>42229</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <v>7500</v>
       </c>
       <c r="E3" s="12">
         <v>12500</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="28">
         <f>ABS(E3-D3-E2)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="46" customFormat="1">
-      <c r="A4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45">
+    <row r="4" spans="1:6" s="35" customFormat="1">
+      <c r="A4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34">
         <f>SUM(F2:F3)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="40" customFormat="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:6" s="29" customFormat="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="30"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="40" customFormat="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+    <row r="7" spans="1:6" s="29" customFormat="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+    <row r="8" spans="1:6" s="29" customFormat="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" s="40" customFormat="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+    <row r="9" spans="1:6" s="29" customFormat="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6"/>
@@ -3459,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3471,7 +2525,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="39" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -3483,32 +2537,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="48">
+        <v>26</v>
+      </c>
+      <c r="C2" s="37">
         <v>42418</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="25">
         <v>1500</v>
       </c>
       <c r="E2" s="12">
@@ -3516,66 +2570,66 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="40" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="48">
+    <row r="3" spans="1:6" s="29" customFormat="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="37">
         <v>42386</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <v>-1000</v>
       </c>
       <c r="E3" s="12">
         <v>7000.94</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="28">
         <f t="shared" ref="F3" si="0">ABS(E3-D3-E2)</f>
         <v>6500.94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="40" customFormat="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="48">
+    <row r="4" spans="1:6" s="29" customFormat="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="37">
         <v>42388</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="25">
         <v>2000</v>
       </c>
       <c r="E4" s="12">
         <v>9002.6299999999992</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="28">
         <f t="shared" ref="F4" si="1">ABS(E4-D4-E3)</f>
         <v>1.6899999999995998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="40" customFormat="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="48">
+    <row r="5" spans="1:6" s="29" customFormat="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="37">
         <v>42388</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>-5000</v>
       </c>
       <c r="E5" s="12">
         <v>4002.63</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="28">
         <f t="shared" ref="F5" si="2">ABS(E5-D5-E4)</f>
         <v>1.8189894035458565E-12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="46" customFormat="1">
-      <c r="A6" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45">
+    <row r="6" spans="1:6" s="35" customFormat="1">
+      <c r="A6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>6502.630000000001</v>
       </c>
